--- a/artfynd/A 61396-2020.xlsx
+++ b/artfynd/A 61396-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112227657</v>
+        <v>112228058</v>
       </c>
       <c r="B2" t="n">
-        <v>81248</v>
+        <v>90466</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>4769</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496238</v>
+        <v>496258</v>
       </c>
       <c r="R2" t="n">
-        <v>6934504</v>
+        <v>6934460</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112228190</v>
+        <v>112227657</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>81371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496305</v>
+        <v>496238</v>
       </c>
       <c r="R3" t="n">
-        <v>6934462</v>
+        <v>6934504</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112228058</v>
+        <v>112227891</v>
       </c>
       <c r="B4" t="n">
-        <v>90332</v>
+        <v>89535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496258</v>
+        <v>496245</v>
       </c>
       <c r="R4" t="n">
-        <v>6934460</v>
+        <v>6934459</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112227891</v>
+        <v>112228055</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>89503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496245</v>
+        <v>496258</v>
       </c>
       <c r="R5" t="n">
-        <v>6934459</v>
+        <v>6934460</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112228201</v>
+        <v>112228190</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89557</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496302</v>
+        <v>496305</v>
       </c>
       <c r="R6" t="n">
-        <v>6934437</v>
+        <v>6934462</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112228055</v>
+        <v>112228201</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>89539</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496258</v>
+        <v>496302</v>
       </c>
       <c r="R7" t="n">
-        <v>6934460</v>
+        <v>6934437</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1355,6 +1355,112 @@
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112305970</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90199</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>898</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Blackticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Steccherinum collabens</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Vesterholt</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NilsAndersknulen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>496348</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6934464</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Haverö</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 61396-2020.xlsx
+++ b/artfynd/A 61396-2020.xlsx
@@ -683,7 +683,7 @@
         <v>112228058</v>
       </c>
       <c r="B2" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112227657</v>
+        <v>112227891</v>
       </c>
       <c r="B3" t="n">
-        <v>81371</v>
+        <v>89549</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496238</v>
+        <v>496245</v>
       </c>
       <c r="R3" t="n">
-        <v>6934504</v>
+        <v>6934459</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112227891</v>
+        <v>112228055</v>
       </c>
       <c r="B4" t="n">
-        <v>89535</v>
+        <v>89517</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496245</v>
+        <v>496258</v>
       </c>
       <c r="R4" t="n">
-        <v>6934459</v>
+        <v>6934460</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112228055</v>
+        <v>112228190</v>
       </c>
       <c r="B5" t="n">
-        <v>89503</v>
+        <v>89571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496258</v>
+        <v>496305</v>
       </c>
       <c r="R5" t="n">
-        <v>6934460</v>
+        <v>6934462</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112228190</v>
+        <v>112228201</v>
       </c>
       <c r="B6" t="n">
-        <v>89557</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496305</v>
+        <v>496302</v>
       </c>
       <c r="R6" t="n">
-        <v>6934462</v>
+        <v>6934437</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112228201</v>
+        <v>112227657</v>
       </c>
       <c r="B7" t="n">
-        <v>89539</v>
+        <v>81385</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496302</v>
+        <v>496238</v>
       </c>
       <c r="R7" t="n">
-        <v>6934437</v>
+        <v>6934504</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,7 +1361,7 @@
         <v>112305970</v>
       </c>
       <c r="B8" t="n">
-        <v>90199</v>
+        <v>90213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
